--- a/medicine/Mort/Cimetière_intercommunal_de_Bondy/Cimetière_intercommunal_de_Bondy.xlsx
+++ b/medicine/Mort/Cimetière_intercommunal_de_Bondy/Cimetière_intercommunal_de_Bondy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_intercommunal_de_Bondy</t>
+          <t>Cimetière_intercommunal_de_Bondy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière intercommunal de Bondy est un cimetière se trouvant à Bondy[1]. C'est l'un des deux cimetières de la commune, avec le cimetière communal de Bondy[2].
-Décidé par le Syndicat intercommunal funéraire de la région parisienne, par arrêté du Préfet de la Seine du 21 avril 1961[3], le cimetière a vu le jour en 1971[4].
-Il est accessible par l'avenue Henri-Varagnat[5] et par la route de Bondy, son prolongement à Aulnay-sous-Bois.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière intercommunal de Bondy est un cimetière se trouvant à Bondy. C'est l'un des deux cimetières de la commune, avec le cimetière communal de Bondy.
+Décidé par le Syndicat intercommunal funéraire de la région parisienne, par arrêté du Préfet de la Seine du 21 avril 1961, le cimetière a vu le jour en 1971.
+Il est accessible par l'avenue Henri-Varagnat et par la route de Bondy, son prolongement à Aulnay-sous-Bois.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_intercommunal_de_Bondy</t>
+          <t>Cimetière_intercommunal_de_Bondy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière abrite un carré israélite et un carré musulman[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière abrite un carré israélite et un carré musulman.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_intercommunal_de_Bondy</t>
+          <t>Cimetière_intercommunal_de_Bondy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
